--- a/Test.xlsx
+++ b/Test.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,16 +31,26 @@
       <color rgb="000070C0"/>
       <sz val="24"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00002455"/>
+      <sz val="23"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,16 +58,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="lgustyle" xfId="1" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -129,6 +144,111 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Баллы</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Коллеги'!$C$2:$C$10</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,7 +540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,12 +553,12 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>ФИО</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Телефон</t>
         </is>
@@ -457,347 +577,357 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Гусева Алла Геннадиевна</t>
+          <t>Герасим Ильич Осипов</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8 562 474 16 94</t>
+          <t>+7 026 029 26 50</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>AVERAGE(C2:C5)</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Антип Валентинович Романов</t>
+          <t>Варлаам Трифонович Нестеров</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>+72031993681</t>
+          <t>89170383635</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>69</v>
+      </c>
+      <c r="E3">
+        <f>SUM(C2:C5)</f>
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Исаков Виталий Данилович</t>
+          <t>Лариса Харитоновна Уварова</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>+7 (780) 092-89-53</t>
+          <t>8 198 931 1024</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Нонна Васильевна Маркова</t>
+          <t>Леон Александрович Сазонов</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>+75483726470</t>
+          <t>+7 (761) 071-94-87</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Пелагея Аскольдовна Морозова</t>
+          <t>Януарий Ануфриевич Крюков</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>80009533687</t>
+          <t>8 629 833 1849</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D6" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Георгий Феодосьевич Макаров</t>
+          <t>Силин Ермолай Филатович</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>+7 105 371 43 98</t>
+          <t>+7 950 609 4443</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Виноградов Рюрик Игоревич</t>
+          <t>тов. Кузнецова Элеонора Павловна</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>85231542330</t>
+          <t>+7 301 813 13 92</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Зуев Влас Зиновьевич</t>
+          <t>Остромир Фокич Николаев</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>+7 989 867 5294</t>
+          <t>+7 (527) 286-98-62</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Капустин Симон Адамович</t>
+          <t>Харитон Алексеевич Вишняков</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8 364 580 74 73</t>
+          <t>8 419 580 3191</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Галина Оскаровна Комиссарова</t>
+          <t>тов. Панфилов Фрол Гордеевич</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>+7 (002) 643-89-66</t>
+          <t>8 (947) 512-61-70</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Лобанова Надежда Васильевна</t>
+          <t>Анжелика Эльдаровна Воробьева</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>+7 692 946 80 82</t>
+          <t>8 396 565 18 37</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Антонина Григорьевна Мишина</t>
+          <t>Соболев Мирон Фёдорович</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>+7 (052) 093-0817</t>
+          <t>+7 (176) 917-2623</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Турова Оксана Артемовна</t>
+          <t>Силина Ксения Ниловна</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>+7 687 707 0761</t>
+          <t>+7 157 080 79 91</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Дроздова Анастасия Семеновна</t>
+          <t>Анжела Афанасьевна Казакова</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8 956 051 7721</t>
+          <t>+7 146 587 71 77</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Копылова Евпраксия Харитоновна</t>
+          <t>Анжела Матвеевна Зиновьева</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>+7 485 668 68 96</t>
+          <t>+7 (052) 452-5878</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Филиппова Полина Наумовна</t>
+          <t>Филатова Анжела Даниловна</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>+79805071503</t>
+          <t>+7 923 556 2380</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Зиновий Харитонович Кошелев</t>
+          <t>Таисия Кирилловна Федорова</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8 (434) 907-48-16</t>
+          <t>8 (650) 629-8484</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Артемий Ааронович Носов</t>
+          <t>Парамон Фокич Филатов</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>+7 507 127 1947</t>
+          <t>8 (352) 731-5719</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="D19" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Савельева Кира Георгиевна</t>
+          <t>Пимен Изотович Семенов</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>+7 807 674 28 51</t>
+          <t>+7 033 102 6836</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -818,361 +948,361 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Эммануил Анатольевич Иванов</t>
+          <t>Афиноген Жоресович Красильников</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>+7 (960) 057-8734</t>
+          <t>+7 003 051 8196</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D1" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Сафонова Марина Кузьминична</t>
+          <t>Турова Надежда Геннадиевна</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>+7 394 424 2451</t>
+          <t>8 296 938 75 08</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="D2" t="n">
-        <v>78</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Артемьев Матвей Аверьянович</t>
+          <t>Юлия Феликсовна Игнатова</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>+7 (153) 702-1736</t>
+          <t>8 991 307 2968</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Лариса Юльевна Щербакова</t>
+          <t>Авдеева Ирина Михайловна</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8 060 602 4237</t>
+          <t>8 (749) 491-21-33</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Котова Вера Натановна</t>
+          <t>Веселова Юлия Вячеславовна</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8 (069) 837-3373</t>
+          <t>8 (726) 619-22-92</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Денис Вилорович Орлов</t>
+          <t>Ерофей Гертрудович Молчанов</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8 (373) 817-47-11</t>
+          <t>+7 129 522 8561</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ситников Милован Эдгарович</t>
+          <t>Мирон Гордеевич Волков</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8 044 679 71 32</t>
+          <t>8 (312) 031-03-72</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D7" t="n">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Остап Трифонович Суханов</t>
+          <t>Владилен Авдеевич Колобов</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>+7 (161) 411-3258</t>
+          <t>8 (851) 183-81-89</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Прохорова Клавдия Юрьевна</t>
+          <t>Борис Артёмович Белов</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>85786656144</t>
+          <t>8 622 334 16 76</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Коновалова Евфросиния Константиновна</t>
+          <t>Цветков Ратмир Изотович</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8 189 899 2165</t>
+          <t>8 (668) 896-5475</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D10" t="n">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Анастасия Валентиновна Алексеева</t>
+          <t>Елена Васильевна Гусева</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>+7 (078) 709-4326</t>
+          <t>+7 (130) 702-1212</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Дмитриева Наталья Аскольдовна</t>
+          <t>Фаина Антоновна Кабанова</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8 967 137 8274</t>
+          <t>88054334012</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Арефий Дорофеевич Крюков</t>
+          <t>Аникита Захарьевич Баранов</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>+7 611 322 38 48</t>
+          <t>81196781675</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D13" t="n">
-        <v>36</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Виноградов Остромир Федосьевич</t>
+          <t>Поляков Евлампий Евстигнеевич</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>+7 489 104 85 57</t>
+          <t>+7 (989) 870-23-42</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Мясникова Кира Богдановна</t>
+          <t>Вероника Сергеевна Ершова</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8 443 984 7716</t>
+          <t>+7 (676) 390-6197</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Радислав Даниилович Дементьев</t>
+          <t>Захаров Савватий Аверьянович</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8 (804) 241-3313</t>
+          <t>+7 627 573 1768</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ия Игоревна Федорова</t>
+          <t>Сысоев Рубен Виленович</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>+7 (400) 396-77-69</t>
+          <t>+7 151 555 44 83</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Дорофеева Ангелина Станиславовна</t>
+          <t>Жанна Харитоновна Аксенова</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8 327 313 9449</t>
+          <t>+71364213076</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Николаева Виктория Григорьевна</t>
+          <t>Юлиан Давидович Захаров</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>+7 (110) 717-29-04</t>
+          <t>8 (401) 946-59-54</t>
         </is>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
         <v>47</v>
-      </c>
-      <c r="D19" t="n">
-        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Яковлева Раиса Богдановна</t>
+          <t>Самсонова Пелагея Кирилловна</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8 923 157 40 38</t>
+          <t>8 (892) 623-6836</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D20" t="n">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1197,361 +1327,361 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Захаров Андроник Ааронович</t>
+          <t>Иванов Агап Матвеевич</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>8 (919) 801-5241</t>
+          <t>85782886927</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D1" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Юрий Андреевич Тетерин</t>
+          <t>Рябова Валерия Аркадьевна</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8 241 534 38 61</t>
+          <t>8 (562) 747-39-10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Михайлова Анна Ильинична</t>
+          <t>Селезнева Элеонора Романовна</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>+7 (783) 216-39-31</t>
+          <t>+7 394 709 3641</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Надежда Антоновна Егорова</t>
+          <t>Шаров Ерофей Анисимович</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>+79143956696</t>
+          <t>+7 441 931 26 66</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Никифор Артемьевич Фомичев</t>
+          <t>Красильникова Зинаида Львовна</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>+7 (141) 083-09-12</t>
+          <t>8 672 053 2969</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Нина Степановна Гаврилова</t>
+          <t>Александра Ильинична Логинова</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8 (339) 688-26-63</t>
+          <t>84960955362</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Аполлон Адамович Михеев</t>
+          <t>Казимир Глебович Ширяев</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>+7 (768) 558-48-46</t>
+          <t>+7 004 155 61 09</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Доронина Октябрина Олеговна</t>
+          <t>Колобова Зоя Харитоновна</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>+7 214 044 4126</t>
+          <t>8 (443) 469-82-23</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Кононова Галина Артемовна</t>
+          <t>Иванов Ермил Ермилович</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8 (032) 577-90-21</t>
+          <t>+7 (027) 806-66-25</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Симонов Афанасий Гаврилович</t>
+          <t>Петров Олег Арсеньевич</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8 (128) 740-64-76</t>
+          <t>+7 (700) 455-09-67</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Лазарева Василиса Никифоровна</t>
+          <t>Евграф Брониславович Петров</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>+7 (795) 174-6512</t>
+          <t>8 180 423 3640</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Лазарева Ольга Леонидовна</t>
+          <t>Сильвестр Артемьевич Уваров</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8 (555) 176-1538</t>
+          <t>+7 055 726 8061</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Елена Аркадьевна Сафонова</t>
+          <t>Новиков Владлен Авдеевич</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>+77582268169</t>
+          <t>8 (126) 287-66-21</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Медведева Элеонора Юльевна</t>
+          <t>Ульяна Львовна Суворова</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>+7 854 689 16 66</t>
+          <t>+7 948 502 8177</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Раиса Антоновна Громова</t>
+          <t>Фаина Кирилловна Калашникова</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>+7 (366) 334-13-03</t>
+          <t>+7 (354) 875-9291</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Владимиров Феофан Устинович</t>
+          <t>Лонгин Феоктистович Сысоев</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8 298 241 20 41</t>
+          <t>+7 (961) 589-52-34</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ювеналий Игоревич Селезнев</t>
+          <t>г-жа Силина Надежда Дмитриевна</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>+7 (515) 539-22-99</t>
+          <t>+78027965261</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Кира Матвеевна Чернова</t>
+          <t>Евсеева Марфа Сергеевна</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8 (877) 407-7896</t>
+          <t>+7 (755) 936-3828</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Калашников Дементий Валерианович</t>
+          <t>Константин Захарьевич Силин</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>84741752133</t>
+          <t>+70659642045</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Варвара Тимофеевна Гуляева</t>
+          <t>Исаков Никита Измаилович</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>84825358476</t>
+          <t>+7 (175) 994-0986</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
